--- a/TRenesasAll_95H/octopart_price.xlsx
+++ b/TRenesasAll_95H/octopart_price.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K299"/>
+  <dimension ref="A1:K472"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J34" sqref="J34"/>
@@ -16547,6 +16547,9381 @@
         </is>
       </c>
     </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>71T75802S133PFGI</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>1</v>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>Mouser</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>972-71T75802S133PFGI</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I300" t="inlineStr">
+        <is>
+          <t>48.240</t>
+        </is>
+      </c>
+      <c r="J300" t="inlineStr">
+        <is>
+          <t>3m</t>
+        </is>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>71T75802S133PFGI</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>1</v>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>71T75802S133PFGI</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I301" t="inlineStr">
+        <is>
+          <t>36.833</t>
+        </is>
+      </c>
+      <c r="J301" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>71T75802S133PFGI</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>1</v>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>Mouser</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>972-71T75802S133PFGI</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I302" t="inlineStr">
+        <is>
+          <t>48.240</t>
+        </is>
+      </c>
+      <c r="J302" t="inlineStr">
+        <is>
+          <t>3m</t>
+        </is>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>71T75802S133PFGI</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>1</v>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>71T75802S133PFGI</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I303" t="inlineStr">
+        <is>
+          <t>36.833</t>
+        </is>
+      </c>
+      <c r="J303" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>71T75802S133PFG</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>1</v>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>71T75802S133PFG</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I304" t="inlineStr">
+        <is>
+          <t>30.679</t>
+        </is>
+      </c>
+      <c r="J304" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>71T75802S133PFG8</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>1</v>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>71T75802S133PFG8</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I305" t="inlineStr">
+        <is>
+          <t>35.695</t>
+        </is>
+      </c>
+      <c r="J305" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>71T75802S133PFGI8</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>1</v>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>71T75802S133PFGI8</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I306" t="inlineStr">
+        <is>
+          <t>42.855</t>
+        </is>
+      </c>
+      <c r="J306" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>71T75802S133PFG8</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>1</v>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>71T75802S133PFG8</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I307" t="inlineStr">
+        <is>
+          <t>35.695</t>
+        </is>
+      </c>
+      <c r="J307" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>71T75802S133PFG8</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>1</v>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>71T75802S133PFG8</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I308" t="inlineStr">
+        <is>
+          <t>35.695</t>
+        </is>
+      </c>
+      <c r="J308" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>71T75802S133PFGI</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>1</v>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>Mouser</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>972-71T75802S133PFGI</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I309" t="inlineStr">
+        <is>
+          <t>48.240</t>
+        </is>
+      </c>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t>10m</t>
+        </is>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>71T75802S133PFGI</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>1</v>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>71T75802S133PFGI</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I310" t="inlineStr">
+        <is>
+          <t>36.833</t>
+        </is>
+      </c>
+      <c r="J310" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>71T75802S133PFGI</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>1</v>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>Mouser</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>972-71T75802S133PFGI</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I311" t="inlineStr">
+        <is>
+          <t>48.240</t>
+        </is>
+      </c>
+      <c r="J311" t="inlineStr">
+        <is>
+          <t>10m</t>
+        </is>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>71T75802S133PFGI</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>1</v>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>71T75802S133PFGI</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I312" t="inlineStr">
+        <is>
+          <t>36.833</t>
+        </is>
+      </c>
+      <c r="J312" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>71T75802S133PFGI8</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>1</v>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>71T75802S133PFGI8</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I313" t="inlineStr">
+        <is>
+          <t>42.855</t>
+        </is>
+      </c>
+      <c r="J313" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>71T75802S133PFGI8</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>1</v>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>71T75802S133PFGI8</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I314" t="inlineStr">
+        <is>
+          <t>42.855</t>
+        </is>
+      </c>
+      <c r="J314" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>71T75802S133PFGI8</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>1</v>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>71T75802S133PFGI8</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I315" t="inlineStr">
+        <is>
+          <t>42.855</t>
+        </is>
+      </c>
+      <c r="J315" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>71T75802S150BG8</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>1</v>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>71T75802S150BG8</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I316" t="inlineStr">
+        <is>
+          <t>37.852</t>
+        </is>
+      </c>
+      <c r="J316" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>71T75802S150BG8</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>1</v>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>71T75802S150BG8</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I317" t="inlineStr">
+        <is>
+          <t>37.852</t>
+        </is>
+      </c>
+      <c r="J317" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>71T75802S150BGG8</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>1</v>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>71T75802S150BGG8</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I318" t="inlineStr">
+        <is>
+          <t>37.852</t>
+        </is>
+      </c>
+      <c r="J318" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>71T75802S150BGG8</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>1</v>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>71T75802S150BGG8</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I319" t="inlineStr">
+        <is>
+          <t>37.852</t>
+        </is>
+      </c>
+      <c r="J319" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>71T75802S150BGGI</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>1</v>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>71T75802S150BGGI</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I320" t="inlineStr">
+        <is>
+          <t>33.966</t>
+        </is>
+      </c>
+      <c r="J320" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>71T75802S150BGGI</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>1</v>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>71T75802S150BGGI</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I321" t="inlineStr">
+        <is>
+          <t>33.966</t>
+        </is>
+      </c>
+      <c r="J321" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>71T75802S150BGGI8</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>1</v>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>71T75802S150BGGI8</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I322" t="inlineStr">
+        <is>
+          <t>39.520</t>
+        </is>
+      </c>
+      <c r="J322" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>71T75802S150BGGI8</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>1</v>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>71T75802S150BGGI8</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I323" t="inlineStr">
+        <is>
+          <t>39.520</t>
+        </is>
+      </c>
+      <c r="J323" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>71T75802S150BGGI8</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>1</v>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>71T75802S150BGGI8</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I324" t="inlineStr">
+        <is>
+          <t>39.520</t>
+        </is>
+      </c>
+      <c r="J324" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>71T75802S150BGI</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>1</v>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>71T75802S150BGI</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I325" t="inlineStr">
+        <is>
+          <t>33.966</t>
+        </is>
+      </c>
+      <c r="J325" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>71T75802S150BGI</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>1</v>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>71T75802S150BGI</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I326" t="inlineStr">
+        <is>
+          <t>33.966</t>
+        </is>
+      </c>
+      <c r="J326" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>71T75802S150BGI8</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>1</v>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>71T75802S150BGI8</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I327" t="inlineStr">
+        <is>
+          <t>39.520</t>
+        </is>
+      </c>
+      <c r="J327" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>71T75802S150BGI8</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>1</v>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>71T75802S150BGI8</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I328" t="inlineStr">
+        <is>
+          <t>39.520</t>
+        </is>
+      </c>
+      <c r="J328" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>71T75802S150BGI8</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>1</v>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>71T75802S150BGI8</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I329" t="inlineStr">
+        <is>
+          <t>39.520</t>
+        </is>
+      </c>
+      <c r="J329" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>71T75802S150PFG8</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>1</v>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>71T75802S150PFG8</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I330" t="inlineStr">
+        <is>
+          <t>35.695</t>
+        </is>
+      </c>
+      <c r="J330" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>71T75802S150PFG8</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>1</v>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>71T75802S150PFG8</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I331" t="inlineStr">
+        <is>
+          <t>35.695</t>
+        </is>
+      </c>
+      <c r="J331" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>71T75802S166BG</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>1</v>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>71T75802S166BG</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I332" t="inlineStr">
+        <is>
+          <t>33.480</t>
+        </is>
+      </c>
+      <c r="J332" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>71T75802S166BG</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>1</v>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>71T75802S166BG</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I333" t="inlineStr">
+        <is>
+          <t>33.480</t>
+        </is>
+      </c>
+      <c r="J333" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>71T75802S166BGG</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>1</v>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>71T75802S166BGG</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I334" t="inlineStr">
+        <is>
+          <t>33.480</t>
+        </is>
+      </c>
+      <c r="J334" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>71T75802S166BGI</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>1</v>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>71T75802S166BGI</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I335" t="inlineStr">
+        <is>
+          <t>35.873</t>
+        </is>
+      </c>
+      <c r="J335" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>71T75802S166BGGI8</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>1</v>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>71T75802S166BGGI8</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I336" t="inlineStr">
+        <is>
+          <t>41.738</t>
+        </is>
+      </c>
+      <c r="J336" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>71T75802S166BG8</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>1</v>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>71T75802S166BG8</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I337" t="inlineStr">
+        <is>
+          <t>38.954</t>
+        </is>
+      </c>
+      <c r="J337" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>71T75802S166BGGI</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>1</v>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>71T75802S166BGGI</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I338" t="inlineStr">
+        <is>
+          <t>35.873</t>
+        </is>
+      </c>
+      <c r="J338" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>71T75802S166BGG8</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>1</v>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>71T75802S166BGG8</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I339" t="inlineStr">
+        <is>
+          <t>38.954</t>
+        </is>
+      </c>
+      <c r="J339" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>71T75802S166BGI8</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>1</v>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>71T75802S166BGI8</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I340" t="inlineStr">
+        <is>
+          <t>41.738</t>
+        </is>
+      </c>
+      <c r="J340" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>71T75802S166BG8</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>1</v>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>71T75802S166BG8</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I341" t="inlineStr">
+        <is>
+          <t>38.954</t>
+        </is>
+      </c>
+      <c r="J341" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>71T75802S166BG8</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>1</v>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>71T75802S166BG8</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I342" t="inlineStr">
+        <is>
+          <t>38.954</t>
+        </is>
+      </c>
+      <c r="J342" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>71T75802S166BGG8</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>1</v>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>71T75802S166BGG8</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I343" t="inlineStr">
+        <is>
+          <t>38.954</t>
+        </is>
+      </c>
+      <c r="J343" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>71T75802S166BGG8</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>1</v>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>71T75802S166BGG8</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I344" t="inlineStr">
+        <is>
+          <t>38.954</t>
+        </is>
+      </c>
+      <c r="J344" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>71T75802S166BGGI</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>1</v>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>71T75802S166BGGI</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I345" t="inlineStr">
+        <is>
+          <t>35.873</t>
+        </is>
+      </c>
+      <c r="J345" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>71T75802S166BGGI</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>1</v>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>71T75802S166BGGI</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I346" t="inlineStr">
+        <is>
+          <t>35.873</t>
+        </is>
+      </c>
+      <c r="J346" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>71T75802S166BGGI8</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>1</v>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>71T75802S166BGGI8</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I347" t="inlineStr">
+        <is>
+          <t>41.738</t>
+        </is>
+      </c>
+      <c r="J347" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>71T75802S166BGGI8</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>1</v>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>71T75802S166BGGI8</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I348" t="inlineStr">
+        <is>
+          <t>41.738</t>
+        </is>
+      </c>
+      <c r="J348" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>71T75802S166BGGI8</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>1</v>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>71T75802S166BGGI8</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I349" t="inlineStr">
+        <is>
+          <t>41.738</t>
+        </is>
+      </c>
+      <c r="J349" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>71T75802S166BGI</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>1</v>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>71T75802S166BGI</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I350" t="inlineStr">
+        <is>
+          <t>35.873</t>
+        </is>
+      </c>
+      <c r="J350" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>71T75802S166BGI</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>1</v>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>71T75802S166BGI</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I351" t="inlineStr">
+        <is>
+          <t>35.873</t>
+        </is>
+      </c>
+      <c r="J351" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>71T75802S166BGI8</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>1</v>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>71T75802S166BGI8</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I352" t="inlineStr">
+        <is>
+          <t>41.738</t>
+        </is>
+      </c>
+      <c r="J352" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>71T75802S166BGI8</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>1</v>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>71T75802S166BGI8</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I353" t="inlineStr">
+        <is>
+          <t>41.738</t>
+        </is>
+      </c>
+      <c r="J353" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>71T75802S166BGI8</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>1</v>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>71T75802S166BGI8</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I354" t="inlineStr">
+        <is>
+          <t>41.738</t>
+        </is>
+      </c>
+      <c r="J354" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>71T75802S166PFG</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>1</v>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>Future Electronics</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>7132801</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I355" t="inlineStr">
+        <is>
+          <t>16.690</t>
+        </is>
+      </c>
+      <c r="J355" t="inlineStr">
+        <is>
+          <t>3m</t>
+        </is>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>71T75802S166PFG</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>1</v>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>71T75802S166PFG</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I356" t="inlineStr">
+        <is>
+          <t>30.679</t>
+        </is>
+      </c>
+      <c r="J356" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>71T75802S166PFG</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>1</v>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>Future Electronics</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>7132801</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I357" t="inlineStr">
+        <is>
+          <t>16.690</t>
+        </is>
+      </c>
+      <c r="J357" t="inlineStr">
+        <is>
+          <t>3m</t>
+        </is>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>71T75802S166PFG</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>1</v>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>71T75802S166PFG</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I358" t="inlineStr">
+        <is>
+          <t>30.679</t>
+        </is>
+      </c>
+      <c r="J358" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>71T75802S166PFGI</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>1</v>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>71T75802S166PFGI</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I359" t="inlineStr">
+        <is>
+          <t>37.885</t>
+        </is>
+      </c>
+      <c r="J359" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>71T75802S166PFGI</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>1</v>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>Avnet Europe</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>71T75802S166PFGI</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>$ *</t>
+        </is>
+      </c>
+      <c r="I360" t="inlineStr">
+        <is>
+          <t>56.490</t>
+        </is>
+      </c>
+      <c r="J360" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>71T75802S166PFG8</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>1</v>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>71T75802S166PFG8</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I361" t="inlineStr">
+        <is>
+          <t>35.695</t>
+        </is>
+      </c>
+      <c r="J361" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>71T75802S166PFGI8</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>1</v>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>71T75802S166PFGI8</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I362" t="inlineStr">
+        <is>
+          <t>44.079</t>
+        </is>
+      </c>
+      <c r="J362" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>71T75802S166PFG8</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>1</v>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>71T75802S166PFG8</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="H363" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I363" t="inlineStr">
+        <is>
+          <t>35.695</t>
+        </is>
+      </c>
+      <c r="J363" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>71T75802S166PFG8</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>1</v>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>71T75802S166PFG8</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I364" t="inlineStr">
+        <is>
+          <t>35.695</t>
+        </is>
+      </c>
+      <c r="J364" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>71T75802S166PFGI</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>1</v>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>71T75802S166PFGI</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I365" t="inlineStr">
+        <is>
+          <t>37.885</t>
+        </is>
+      </c>
+      <c r="J365" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>71T75802S166PFGI</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>1</v>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>Avnet Europe</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>71T75802S166PFGI</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>$ *</t>
+        </is>
+      </c>
+      <c r="I366" t="inlineStr">
+        <is>
+          <t>56.516</t>
+        </is>
+      </c>
+      <c r="J366" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>71T75802S166PFGI</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>1</v>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>71T75802S166PFGI</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I367" t="inlineStr">
+        <is>
+          <t>37.885</t>
+        </is>
+      </c>
+      <c r="J367" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>71T75802S166PFGI</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>1</v>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>Avnet Europe</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>71T75802S166PFGI</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>$ *</t>
+        </is>
+      </c>
+      <c r="I368" t="inlineStr">
+        <is>
+          <t>56.516</t>
+        </is>
+      </c>
+      <c r="J368" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>71T75802S166PFGI8</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>1</v>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>71T75802S166PFGI8</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I369" t="inlineStr">
+        <is>
+          <t>44.079</t>
+        </is>
+      </c>
+      <c r="J369" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>71T75802S166PFGI8</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>1</v>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>71T75802S166PFGI8</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I370" t="inlineStr">
+        <is>
+          <t>44.079</t>
+        </is>
+      </c>
+      <c r="J370" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>71T75802S166PFGI8</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>1</v>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>71T75802S166PFGI8</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I371" t="inlineStr">
+        <is>
+          <t>44.079</t>
+        </is>
+      </c>
+      <c r="J371" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>71T75802S200BG</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>1</v>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>Rochester Electronics</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>71T75802S200BG</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H372" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I372" t="inlineStr">
+        <is>
+          <t>22.230</t>
+        </is>
+      </c>
+      <c r="J372" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>71T75802S200BG</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>1</v>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>71T75802S200BG</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G373" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H373" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I373" t="inlineStr">
+        <is>
+          <t>43.125</t>
+        </is>
+      </c>
+      <c r="J373" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>71T75802S200BG</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C374" t="n">
+        <v>1</v>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>Rochester Electronics</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>71T75802S200BG</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H374" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I374" t="inlineStr">
+        <is>
+          <t>22.230</t>
+        </is>
+      </c>
+      <c r="J374" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>71T75802S200BG</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>1</v>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>71T75802S200BG</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G375" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H375" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I375" t="inlineStr">
+        <is>
+          <t>43.125</t>
+        </is>
+      </c>
+      <c r="J375" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>71T75802S200BGG8</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>1</v>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>71T75802S200BGG8</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G376" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="H376" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I376" t="inlineStr">
+        <is>
+          <t>39.964</t>
+        </is>
+      </c>
+      <c r="J376" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>71T75802S200BG8</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>1</v>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>71T75802S200BG8</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G377" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="H377" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I377" t="inlineStr">
+        <is>
+          <t>39.964</t>
+        </is>
+      </c>
+      <c r="J377" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>71T75802S200BGI8</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>1</v>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>71T75802S200BGI8</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G378" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="H378" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I378" t="inlineStr">
+        <is>
+          <t>41.738</t>
+        </is>
+      </c>
+      <c r="J378" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>71T75802S200BGI</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>1</v>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>71T75802S200BGI</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G379" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="H379" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I379" t="inlineStr">
+        <is>
+          <t>35.873</t>
+        </is>
+      </c>
+      <c r="J379" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>71T75802S200BGG</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C380" t="n">
+        <v>1</v>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>Rochester Electronics</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>71T75802S200BGG</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H380" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I380" t="inlineStr">
+        <is>
+          <t>22.230</t>
+        </is>
+      </c>
+      <c r="J380" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>71T75802S200BGG</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>1</v>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>71T75802S200BGG</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G381" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H381" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I381" t="inlineStr">
+        <is>
+          <t>43.125</t>
+        </is>
+      </c>
+      <c r="J381" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>71T75802S200BGGI</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>1</v>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>Rochester Electronics</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>71T75802S200BGGI</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="H382" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I382" t="inlineStr">
+        <is>
+          <t>23.220</t>
+        </is>
+      </c>
+      <c r="J382" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>71T75802S200BGGI</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C383" t="n">
+        <v>1</v>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>71T75802S200BGGI</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="G383" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H383" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I383" t="inlineStr">
+        <is>
+          <t>24.656</t>
+        </is>
+      </c>
+      <c r="J383" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>71T75802S200BGGI8</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C384" t="n">
+        <v>1</v>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>71T75802S200BGGI8</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G384" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="J384" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>71T75802S200BG8</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C385" t="n">
+        <v>1</v>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>71T75802S200BG8</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G385" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="H385" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I385" t="inlineStr">
+        <is>
+          <t>39.964</t>
+        </is>
+      </c>
+      <c r="J385" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>71T75802S200BG8</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C386" t="n">
+        <v>1</v>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>71T75802S200BG8</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G386" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="H386" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I386" t="inlineStr">
+        <is>
+          <t>39.964</t>
+        </is>
+      </c>
+      <c r="J386" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>71T75802S200BGG</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C387" t="n">
+        <v>1</v>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>Rochester Electronics</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>71T75802S200BGG</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H387" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I387" t="inlineStr">
+        <is>
+          <t>22.230</t>
+        </is>
+      </c>
+      <c r="J387" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>71T75802S200BGG</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C388" t="n">
+        <v>1</v>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>71T75802S200BGG</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G388" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H388" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I388" t="inlineStr">
+        <is>
+          <t>43.125</t>
+        </is>
+      </c>
+      <c r="J388" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>71T75802S200BGG</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>1</v>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>Rochester Electronics</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>71T75802S200BGG</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H389" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I389" t="inlineStr">
+        <is>
+          <t>22.230</t>
+        </is>
+      </c>
+      <c r="J389" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>71T75802S200BGG</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>1</v>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>71T75802S200BGG</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G390" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H390" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I390" t="inlineStr">
+        <is>
+          <t>43.125</t>
+        </is>
+      </c>
+      <c r="J390" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>71T75802S200BGG8</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>1</v>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>71T75802S200BGG8</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G391" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="H391" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I391" t="inlineStr">
+        <is>
+          <t>39.964</t>
+        </is>
+      </c>
+      <c r="J391" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>71T75802S200BGGI</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>1</v>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>Rochester Electronics</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>71T75802S200BGGI</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="H392" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I392" t="inlineStr">
+        <is>
+          <t>23.220</t>
+        </is>
+      </c>
+      <c r="J392" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>71T75802S200BGGI</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>1</v>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>71T75802S200BGGI</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="G393" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H393" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I393" t="inlineStr">
+        <is>
+          <t>24.656</t>
+        </is>
+      </c>
+      <c r="J393" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>71T75802S200BGGI8</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>1</v>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>71T75802S200BGGI8</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="J394" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>71T75802S200BGG8</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C395" t="n">
+        <v>1</v>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>71T75802S200BGG8</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="H395" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I395" t="inlineStr">
+        <is>
+          <t>39.964</t>
+        </is>
+      </c>
+      <c r="J395" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>71T75802S200BGG8</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>1</v>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>71T75802S200BGG8</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G396" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="H396" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I396" t="inlineStr">
+        <is>
+          <t>39.964</t>
+        </is>
+      </c>
+      <c r="J396" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>71T75802S200BGGI8</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C397" t="n">
+        <v>1</v>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>71T75802S200BGGI8</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G397" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="J397" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>71T75802S200BGGI8</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C398" t="n">
+        <v>1</v>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>71T75802S200BGGI8</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="J398" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>71T75802S200BGI</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C399" t="n">
+        <v>1</v>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>71T75802S200BGI</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G399" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="H399" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I399" t="inlineStr">
+        <is>
+          <t>35.873</t>
+        </is>
+      </c>
+      <c r="J399" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>71T75802S200BGI</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C400" t="n">
+        <v>1</v>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>71T75802S200BGI</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G400" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="H400" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I400" t="inlineStr">
+        <is>
+          <t>35.873</t>
+        </is>
+      </c>
+      <c r="J400" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>71T75802S200BGI8</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C401" t="n">
+        <v>1</v>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>71T75802S200BGI8</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="H401" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I401" t="inlineStr">
+        <is>
+          <t>41.738</t>
+        </is>
+      </c>
+      <c r="J401" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>71T75802S200BGI8</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C402" t="n">
+        <v>1</v>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>71T75802S200BGI8</t>
+        </is>
+      </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G402" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="H402" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I402" t="inlineStr">
+        <is>
+          <t>41.738</t>
+        </is>
+      </c>
+      <c r="J402" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>71T75802S200BGI8</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C403" t="n">
+        <v>1</v>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>71T75802S200BGI8</t>
+        </is>
+      </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G403" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="H403" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I403" t="inlineStr">
+        <is>
+          <t>41.738</t>
+        </is>
+      </c>
+      <c r="J403" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>71T75802S200PFG8</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C404" t="n">
+        <v>1</v>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>71T75802S200PFG8</t>
+        </is>
+      </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G404" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="H404" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I404" t="inlineStr">
+        <is>
+          <t>35.695</t>
+        </is>
+      </c>
+      <c r="J404" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>71T75802S200PFG8</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C405" t="n">
+        <v>1</v>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>71T75802S200PFG8</t>
+        </is>
+      </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G405" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="H405" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I405" t="inlineStr">
+        <is>
+          <t>35.695</t>
+        </is>
+      </c>
+      <c r="J405" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>71T75802S200PFGI</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C406" t="n">
+        <v>1</v>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>71T75802S200PFGI</t>
+        </is>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G406" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H406" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I406" t="inlineStr">
+        <is>
+          <t>53.380</t>
+        </is>
+      </c>
+      <c r="J406" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>71T75802S200PFGI</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C407" t="n">
+        <v>1</v>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>71T75802S200PFGI</t>
+        </is>
+      </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G407" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H407" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I407" t="inlineStr">
+        <is>
+          <t>53.380</t>
+        </is>
+      </c>
+      <c r="J407" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>71T75802S200PFGI8</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C408" t="n">
+        <v>1</v>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>71T75802S200PFGI8</t>
+        </is>
+      </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G408" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="H408" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I408" t="inlineStr">
+        <is>
+          <t>49.465</t>
+        </is>
+      </c>
+      <c r="J408" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>71T75802S200PFGI8</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C409" t="n">
+        <v>1</v>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>71T75802S200PFGI8</t>
+        </is>
+      </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G409" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="H409" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I409" t="inlineStr">
+        <is>
+          <t>49.465</t>
+        </is>
+      </c>
+      <c r="J409" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>71T75802S200PFGI8</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C410" t="n">
+        <v>1</v>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>71T75802S200PFGI8</t>
+        </is>
+      </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G410" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="H410" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I410" t="inlineStr">
+        <is>
+          <t>49.465</t>
+        </is>
+      </c>
+      <c r="J410" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>71V016SA12PHG8</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C411" t="n">
+        <v>1</v>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>Future Electronics</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>2078948</t>
+        </is>
+      </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>6,000</t>
+        </is>
+      </c>
+      <c r="G411" t="inlineStr">
+        <is>
+          <t>1,500</t>
+        </is>
+      </c>
+      <c r="H411" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="J411" t="inlineStr">
+        <is>
+          <t>3m</t>
+        </is>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>71V016SA12PHG8</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C412" t="n">
+        <v>1</v>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>Mouser</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>972-71V016SA12PHG8</t>
+        </is>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G412" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H412" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I412" t="inlineStr">
+        <is>
+          <t>2.090</t>
+        </is>
+      </c>
+      <c r="J412" t="inlineStr">
+        <is>
+          <t>3m</t>
+        </is>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>71V016SA12PHG8</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C413" t="n">
+        <v>1</v>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>element14 APAC</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>3263064</t>
+        </is>
+      </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H413" t="inlineStr">
+        <is>
+          <t>$ *</t>
+        </is>
+      </c>
+      <c r="I413" t="inlineStr">
+        <is>
+          <t>2.151</t>
+        </is>
+      </c>
+      <c r="J413" t="inlineStr">
+        <is>
+          <t>16h</t>
+        </is>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>71V016SA12PHG8</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C414" t="n">
+        <v>1</v>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>71V016SA12PHG8</t>
+        </is>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G414" t="inlineStr">
+        <is>
+          <t>1,500</t>
+        </is>
+      </c>
+      <c r="H414" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="J414" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>71V016SA12PHG8</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C415" t="n">
+        <v>1</v>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>2641296</t>
+        </is>
+      </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G415" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H415" t="inlineStr">
+        <is>
+          <t>$ *</t>
+        </is>
+      </c>
+      <c r="I415" t="inlineStr">
+        <is>
+          <t>2.627</t>
+        </is>
+      </c>
+      <c r="J415" t="inlineStr">
+        <is>
+          <t>2d</t>
+        </is>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>71V016SA12PHG8</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C416" t="n">
+        <v>1</v>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>Newark</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>42AH2714</t>
+        </is>
+      </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G416" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H416" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I416" t="inlineStr">
+        <is>
+          <t>2.110</t>
+        </is>
+      </c>
+      <c r="J416" t="inlineStr">
+        <is>
+          <t>4m</t>
+        </is>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>71V016SA12PHG8</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C417" t="n">
+        <v>1</v>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>Farnell</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>3263064</t>
+        </is>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G417" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H417" t="inlineStr">
+        <is>
+          <t>$ *</t>
+        </is>
+      </c>
+      <c r="I417" t="inlineStr">
+        <is>
+          <t>2.144</t>
+        </is>
+      </c>
+      <c r="J417" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>71V016SA12PHG8</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C418" t="n">
+        <v>1</v>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>Future Electronics</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>2078948</t>
+        </is>
+      </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>6,000</t>
+        </is>
+      </c>
+      <c r="G418" t="inlineStr">
+        <is>
+          <t>1,500</t>
+        </is>
+      </c>
+      <c r="H418" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="J418" t="inlineStr">
+        <is>
+          <t>4m</t>
+        </is>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>71V016SA12PHG8</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C419" t="n">
+        <v>1</v>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>Mouser</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>972-71V016SA12PHG8</t>
+        </is>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G419" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H419" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I419" t="inlineStr">
+        <is>
+          <t>2.090</t>
+        </is>
+      </c>
+      <c r="J419" t="inlineStr">
+        <is>
+          <t>4m</t>
+        </is>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>71V016SA12PHG8</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C420" t="n">
+        <v>1</v>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>element14 APAC</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>3263064</t>
+        </is>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G420" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H420" t="inlineStr">
+        <is>
+          <t>$ *</t>
+        </is>
+      </c>
+      <c r="I420" t="inlineStr">
+        <is>
+          <t>2.151</t>
+        </is>
+      </c>
+      <c r="J420" t="inlineStr">
+        <is>
+          <t>16h</t>
+        </is>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>71V016SA12PHG8</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C421" t="n">
+        <v>1</v>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>71V016SA12PHG8</t>
+        </is>
+      </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G421" t="inlineStr">
+        <is>
+          <t>1,500</t>
+        </is>
+      </c>
+      <c r="H421" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="J421" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>71V016SA12PHG8</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C422" t="n">
+        <v>1</v>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>2641296</t>
+        </is>
+      </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G422" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H422" t="inlineStr">
+        <is>
+          <t>$ *</t>
+        </is>
+      </c>
+      <c r="I422" t="inlineStr">
+        <is>
+          <t>2.627</t>
+        </is>
+      </c>
+      <c r="J422" t="inlineStr">
+        <is>
+          <t>2d</t>
+        </is>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>71V016SA12PHGI</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C423" t="n">
+        <v>1</v>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>Mouser</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>972-71V016SA12PHGI</t>
+        </is>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="G423" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H423" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I423" t="inlineStr">
+        <is>
+          <t>2.360</t>
+        </is>
+      </c>
+      <c r="J423" t="inlineStr">
+        <is>
+          <t>4m</t>
+        </is>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>71V016SA12PHGI</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C424" t="n">
+        <v>1</v>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>element14 APAC</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>3869632</t>
+        </is>
+      </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G424" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H424" t="inlineStr">
+        <is>
+          <t>$ *</t>
+        </is>
+      </c>
+      <c r="I424" t="inlineStr">
+        <is>
+          <t>2.699</t>
+        </is>
+      </c>
+      <c r="J424" t="inlineStr">
+        <is>
+          <t>16h</t>
+        </is>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>71V016SA12PHGI</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C425" t="n">
+        <v>1</v>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>71V016SA12PHGI</t>
+        </is>
+      </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G425" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="H425" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I425" t="inlineStr">
+        <is>
+          <t>3.887</t>
+        </is>
+      </c>
+      <c r="J425" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>71V016SA12PHGI</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C426" t="n">
+        <v>1</v>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>2544963P</t>
+        </is>
+      </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G426" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H426" t="inlineStr">
+        <is>
+          <t>$ *</t>
+        </is>
+      </c>
+      <c r="I426" t="inlineStr">
+        <is>
+          <t>2.601</t>
+        </is>
+      </c>
+      <c r="J426" t="inlineStr">
+        <is>
+          <t>2d</t>
+        </is>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>71V016SA12PHGI</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C427" t="n">
+        <v>1</v>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>Newark</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>85AJ8454</t>
+        </is>
+      </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G427" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H427" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I427" t="inlineStr">
+        <is>
+          <t>2.190</t>
+        </is>
+      </c>
+      <c r="J427" t="inlineStr">
+        <is>
+          <t>4m</t>
+        </is>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>71V016SA12PHGI</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C428" t="n">
+        <v>1</v>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>Newark</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>85AJ8454</t>
+        </is>
+      </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G428" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H428" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I428" t="inlineStr">
+        <is>
+          <t>2.190</t>
+        </is>
+      </c>
+      <c r="J428" t="inlineStr">
+        <is>
+          <t>4m</t>
+        </is>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>71V016SA12PHGI</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C429" t="n">
+        <v>1</v>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>Farnell</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>3869632</t>
+        </is>
+      </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G429" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H429" t="inlineStr">
+        <is>
+          <t>$ *</t>
+        </is>
+      </c>
+      <c r="I429" t="inlineStr">
+        <is>
+          <t>2.344</t>
+        </is>
+      </c>
+      <c r="J429" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>71V016SA10PHG</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C430" t="n">
+        <v>1</v>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>Mouser</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>972-71V016SA10PHG</t>
+        </is>
+      </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="G430" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H430" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I430" t="inlineStr">
+        <is>
+          <t>2.230</t>
+        </is>
+      </c>
+      <c r="J430" t="inlineStr">
+        <is>
+          <t>4m</t>
+        </is>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>71V016SA10PHG</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C431" t="n">
+        <v>1</v>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>element14 APAC</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>2828443</t>
+        </is>
+      </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G431" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H431" t="inlineStr">
+        <is>
+          <t>$ *</t>
+        </is>
+      </c>
+      <c r="I431" t="inlineStr">
+        <is>
+          <t>2.307</t>
+        </is>
+      </c>
+      <c r="J431" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>71V016SA10PHG</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C432" t="n">
+        <v>1</v>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>2544960</t>
+        </is>
+      </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G432" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H432" t="inlineStr">
+        <is>
+          <t>$ *</t>
+        </is>
+      </c>
+      <c r="I432" t="inlineStr">
+        <is>
+          <t>2.364</t>
+        </is>
+      </c>
+      <c r="J432" t="inlineStr">
+        <is>
+          <t>2d</t>
+        </is>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>71V016SA10PHG</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C433" t="n">
+        <v>1</v>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>Future Electronics</t>
+        </is>
+      </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>7079566</t>
+        </is>
+      </c>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G433" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H433" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I433" t="inlineStr">
+        <is>
+          <t>1.800</t>
+        </is>
+      </c>
+      <c r="J433" t="inlineStr">
+        <is>
+          <t>4m</t>
+        </is>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>71V016SA10PHG</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C434" t="n">
+        <v>1</v>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>71V016SA10PHG</t>
+        </is>
+      </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G434" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H434" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I434" t="inlineStr">
+        <is>
+          <t>2.200</t>
+        </is>
+      </c>
+      <c r="J434" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>71V016SA10PHG</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C435" t="n">
+        <v>1</v>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>Future Electronics</t>
+        </is>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>7079566</t>
+        </is>
+      </c>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G435" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H435" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I435" t="inlineStr">
+        <is>
+          <t>1.800</t>
+        </is>
+      </c>
+      <c r="J435" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>71V016SA10PHG</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C436" t="n">
+        <v>1</v>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>71V016SA10PHG</t>
+        </is>
+      </c>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G436" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H436" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I436" t="inlineStr">
+        <is>
+          <t>2.200</t>
+        </is>
+      </c>
+      <c r="J436" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>71V016SA10PHG</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C437" t="n">
+        <v>1</v>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>Farnell</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>2828443</t>
+        </is>
+      </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G437" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H437" t="inlineStr">
+        <is>
+          <t>$ *</t>
+        </is>
+      </c>
+      <c r="I437" t="inlineStr">
+        <is>
+          <t>1.721</t>
+        </is>
+      </c>
+      <c r="J437" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>71V016SA10PHG</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C438" t="n">
+        <v>1</v>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>Newark</t>
+        </is>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>47AC2622</t>
+        </is>
+      </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G438" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H438" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I438" t="inlineStr">
+        <is>
+          <t>2.250</t>
+        </is>
+      </c>
+      <c r="J438" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>71V016SA15PHG8</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C439" t="n">
+        <v>1</v>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>Mouser</t>
+        </is>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>972-71V016SA15PHG8</t>
+        </is>
+      </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>2,800</t>
+        </is>
+      </c>
+      <c r="G439" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H439" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I439" t="inlineStr">
+        <is>
+          <t>2.090</t>
+        </is>
+      </c>
+      <c r="J439" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>71V016SA15PHG8</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C440" t="n">
+        <v>1</v>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>element14 APAC</t>
+        </is>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>3869633</t>
+        </is>
+      </c>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G440" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H440" t="inlineStr">
+        <is>
+          <t>$ *</t>
+        </is>
+      </c>
+      <c r="I440" t="inlineStr">
+        <is>
+          <t>2.151</t>
+        </is>
+      </c>
+      <c r="J440" t="inlineStr">
+        <is>
+          <t>16h</t>
+        </is>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>71V016SA15PHG8</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C441" t="n">
+        <v>1</v>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>2641298P</t>
+        </is>
+      </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G441" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H441" t="inlineStr">
+        <is>
+          <t>$ *</t>
+        </is>
+      </c>
+      <c r="I441" t="inlineStr">
+        <is>
+          <t>2.627</t>
+        </is>
+      </c>
+      <c r="J441" t="inlineStr">
+        <is>
+          <t>2d</t>
+        </is>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>71V016SA15PHG8</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C442" t="n">
+        <v>1</v>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>Future Electronics</t>
+        </is>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>8097105</t>
+        </is>
+      </c>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G442" t="inlineStr">
+        <is>
+          <t>1,500</t>
+        </is>
+      </c>
+      <c r="H442" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="J442" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>71V016SA15PHG8</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C443" t="n">
+        <v>1</v>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>71V016SA15PHG8</t>
+        </is>
+      </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G443" t="inlineStr">
+        <is>
+          <t>1,500</t>
+        </is>
+      </c>
+      <c r="H443" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="J443" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>71V016SA15PHG8</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C444" t="n">
+        <v>1</v>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>Future Electronics</t>
+        </is>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>8097105</t>
+        </is>
+      </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G444" t="inlineStr">
+        <is>
+          <t>1,500</t>
+        </is>
+      </c>
+      <c r="H444" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="J444" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>71V016SA15PHG8</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C445" t="n">
+        <v>1</v>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>71V016SA15PHG8</t>
+        </is>
+      </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G445" t="inlineStr">
+        <is>
+          <t>1,500</t>
+        </is>
+      </c>
+      <c r="H445" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="J445" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>71V016SA15PHG8</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C446" t="n">
+        <v>1</v>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>Newark</t>
+        </is>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>85AJ8455</t>
+        </is>
+      </c>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G446" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H446" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I446" t="inlineStr">
+        <is>
+          <t>2.330</t>
+        </is>
+      </c>
+      <c r="J446" t="inlineStr">
+        <is>
+          <t>5m</t>
+        </is>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>71V016SA15PHG8</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C447" t="n">
+        <v>1</v>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>Farnell</t>
+        </is>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>3869633</t>
+        </is>
+      </c>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G447" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H447" t="inlineStr">
+        <is>
+          <t>$ *</t>
+        </is>
+      </c>
+      <c r="I447" t="inlineStr">
+        <is>
+          <t>2.132</t>
+        </is>
+      </c>
+      <c r="J447" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>71V016SA12BFG</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C448" t="n">
+        <v>1</v>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>Rochester Electronics</t>
+        </is>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>71V016SA12BFG</t>
+        </is>
+      </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="H448" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I448" t="inlineStr">
+        <is>
+          <t>2.530</t>
+        </is>
+      </c>
+      <c r="J448" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>71V016SA12BFG</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C449" t="n">
+        <v>1</v>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>71V016SA12BFG</t>
+        </is>
+      </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="G449" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="H449" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I449" t="inlineStr">
+        <is>
+          <t>5.111</t>
+        </is>
+      </c>
+      <c r="J449" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>71V016SA12BFG</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C450" t="n">
+        <v>1</v>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>Mouser</t>
+        </is>
+      </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>972-71V016SA12BFG</t>
+        </is>
+      </c>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="G450" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H450" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I450" t="inlineStr">
+        <is>
+          <t>5.200</t>
+        </is>
+      </c>
+      <c r="J450" t="inlineStr">
+        <is>
+          <t>6m</t>
+        </is>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>71V016SA10PHG8</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C451" t="n">
+        <v>1</v>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>Mouser</t>
+        </is>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>972-71V016SA10PHG8</t>
+        </is>
+      </c>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t>1,439</t>
+        </is>
+      </c>
+      <c r="G451" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H451" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I451" t="inlineStr">
+        <is>
+          <t>2.090</t>
+        </is>
+      </c>
+      <c r="J451" t="inlineStr">
+        <is>
+          <t>6m</t>
+        </is>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>71V016SA10PHG8</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C452" t="n">
+        <v>1</v>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>element14 APAC</t>
+        </is>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>3869631</t>
+        </is>
+      </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G452" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H452" t="inlineStr">
+        <is>
+          <t>$ *</t>
+        </is>
+      </c>
+      <c r="I452" t="inlineStr">
+        <is>
+          <t>2.190</t>
+        </is>
+      </c>
+      <c r="J452" t="inlineStr">
+        <is>
+          <t>16h</t>
+        </is>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>71V016SA10PHG8</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C453" t="n">
+        <v>1</v>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>2492441P</t>
+        </is>
+      </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G453" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H453" t="inlineStr">
+        <is>
+          <t>$ *</t>
+        </is>
+      </c>
+      <c r="I453" t="inlineStr">
+        <is>
+          <t>2.562</t>
+        </is>
+      </c>
+      <c r="J453" t="inlineStr">
+        <is>
+          <t>2d</t>
+        </is>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>71V016SA10PHG8</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C454" t="n">
+        <v>1</v>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>71V016SA10PHG8</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G454" t="inlineStr">
+        <is>
+          <t>1,500</t>
+        </is>
+      </c>
+      <c r="H454" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="J454" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>71V016SA10PHG8</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C455" t="n">
+        <v>1</v>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>Future Electronics</t>
+        </is>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>7079567</t>
+        </is>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G455" t="inlineStr">
+        <is>
+          <t>1,500</t>
+        </is>
+      </c>
+      <c r="H455" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="J455" t="inlineStr">
+        <is>
+          <t>6m</t>
+        </is>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>71V016SA10PHG8</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C456" t="n">
+        <v>1</v>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>71V016SA10PHG8</t>
+        </is>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G456" t="inlineStr">
+        <is>
+          <t>1,500</t>
+        </is>
+      </c>
+      <c r="H456" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="J456" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>71V016SA10PHG8</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C457" t="n">
+        <v>1</v>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>Future Electronics</t>
+        </is>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>7079567</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G457" t="inlineStr">
+        <is>
+          <t>1,500</t>
+        </is>
+      </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="J457" t="inlineStr">
+        <is>
+          <t>6m</t>
+        </is>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>71V016SA10PHG8</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C458" t="n">
+        <v>1</v>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>Newark</t>
+        </is>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>85AJ8453</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G458" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I458" t="inlineStr">
+        <is>
+          <t>2.090</t>
+        </is>
+      </c>
+      <c r="J458" t="inlineStr">
+        <is>
+          <t>6m</t>
+        </is>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>71V016SA10PHG8</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C459" t="n">
+        <v>1</v>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>Farnell</t>
+        </is>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>3869631</t>
+        </is>
+      </c>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G459" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H459" t="inlineStr">
+        <is>
+          <t>$ *</t>
+        </is>
+      </c>
+      <c r="I459" t="inlineStr">
+        <is>
+          <t>2.132</t>
+        </is>
+      </c>
+      <c r="J459" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>71V016SA20PHG</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C460" t="n">
+        <v>1</v>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>Mouser</t>
+        </is>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>972-71V016SA20PHG</t>
+        </is>
+      </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>810</t>
+        </is>
+      </c>
+      <c r="G460" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H460" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I460" t="inlineStr">
+        <is>
+          <t>2.230</t>
+        </is>
+      </c>
+      <c r="J460" t="inlineStr">
+        <is>
+          <t>6m</t>
+        </is>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>71V016SA20PHG</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C461" t="n">
+        <v>1</v>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>Future Electronics</t>
+        </is>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>9090076</t>
+        </is>
+      </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G461" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H461" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I461" t="inlineStr">
+        <is>
+          <t>1.880</t>
+        </is>
+      </c>
+      <c r="J461" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>71V016SA20PHG</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C462" t="n">
+        <v>1</v>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>71V016SA20PHG</t>
+        </is>
+      </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G462" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H462" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I462" t="inlineStr">
+        <is>
+          <t>2.200</t>
+        </is>
+      </c>
+      <c r="J462" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>71V016SA12PHG</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C463" t="n">
+        <v>1</v>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>Mouser</t>
+        </is>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>972-71V016SA12PHG</t>
+        </is>
+      </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H463" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I463" t="inlineStr">
+        <is>
+          <t>2.230</t>
+        </is>
+      </c>
+      <c r="J463" t="inlineStr">
+        <is>
+          <t>6m</t>
+        </is>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>71V016SA12PHG</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C464" t="n">
+        <v>1</v>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>2544965</t>
+        </is>
+      </c>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G464" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H464" t="inlineStr">
+        <is>
+          <t>$ *</t>
+        </is>
+      </c>
+      <c r="I464" t="inlineStr">
+        <is>
+          <t>2.467</t>
+        </is>
+      </c>
+      <c r="J464" t="inlineStr">
+        <is>
+          <t>2d</t>
+        </is>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>71V016SA12PHG</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C465" t="n">
+        <v>1</v>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>71V016SA12PHG</t>
+        </is>
+      </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G465" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H465" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I465" t="inlineStr">
+        <is>
+          <t>2.200</t>
+        </is>
+      </c>
+      <c r="J465" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>71V016SA12PHG</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C466" t="n">
+        <v>1</v>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>Future Electronics</t>
+        </is>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>6102957</t>
+        </is>
+      </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G466" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="H466" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I466" t="inlineStr">
+        <is>
+          <t>1.740</t>
+        </is>
+      </c>
+      <c r="J466" t="inlineStr">
+        <is>
+          <t>6m</t>
+        </is>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>71V016SA15PHG</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C467" t="n">
+        <v>1</v>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>800-2455-5-ND</t>
+        </is>
+      </c>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G467" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H467" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I467" t="inlineStr">
+        <is>
+          <t>1.953</t>
+        </is>
+      </c>
+      <c r="J467" t="inlineStr">
+        <is>
+          <t>6m</t>
+        </is>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>71V016SA15PHG</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C468" t="n">
+        <v>1</v>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>71V016SA15PHG</t>
+        </is>
+      </c>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G468" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H468" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I468" t="inlineStr">
+        <is>
+          <t>2.200</t>
+        </is>
+      </c>
+      <c r="J468" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>71V016SA15PHG</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C469" t="n">
+        <v>1</v>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>Mouser</t>
+        </is>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>972-71V016SA15PHG</t>
+        </is>
+      </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G469" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H469" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I469" t="inlineStr">
+        <is>
+          <t>2.230</t>
+        </is>
+      </c>
+      <c r="J469" t="inlineStr">
+        <is>
+          <t>6m</t>
+        </is>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>71V016SA15PHGI</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C470" t="n">
+        <v>1</v>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>Mouser</t>
+        </is>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>972-71V016SA15PHGI</t>
+        </is>
+      </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="G470" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H470" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I470" t="inlineStr">
+        <is>
+          <t>2.360</t>
+        </is>
+      </c>
+      <c r="J470" t="inlineStr">
+        <is>
+          <t>6m</t>
+        </is>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>71V016SA15PHGI</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C471" t="n">
+        <v>1</v>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>Future Electronics</t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>8132429</t>
+        </is>
+      </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G471" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="H471" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I471" t="inlineStr">
+        <is>
+          <t>1.840</t>
+        </is>
+      </c>
+      <c r="J471" t="inlineStr">
+        <is>
+          <t>6m</t>
+        </is>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>71V016SA15PHGI</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C472" t="n">
+        <v>1</v>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>Avnet</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>71V016SA15PHGI</t>
+        </is>
+      </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G472" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H472" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="I472" t="inlineStr">
+        <is>
+          <t>3.974</t>
+        </is>
+      </c>
+      <c r="J472" t="inlineStr">
+        <is>
+          <t>1d</t>
+        </is>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
